--- a/biology/Botanique/Allium_dilatatum/Allium_dilatatum.xlsx
+++ b/biology/Botanique/Allium_dilatatum/Allium_dilatatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium dilatatum est une espèce de plante du genre Allium de la famille des Amaryllidaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium dilatatum est une espèce de plante du genre Allium de la famille des Amaryllidaceae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium dilatatum est une plante herbacée vivace atteignant de 25 à 50 centimètres de hauteur. Ce géophyte forme des bulbes pour se reproduire. Les feuilles mesurent 1 à 2 millimètres de large et se flétrissent quand les fleurs sont épanouies..
 Les pedicelles mesurent de 5 à 15 millimètres de long. Les pétales sont de couleur blanche et ont une bande centrale verte. Les bractées externes ont une carène papilleuse. La partie inférieure des étamines est deux à trois fois plus longue que la pointe centrale.
 La période de floraison s'étend de juillet à octobre.
-Le nombre de chromosomes est 2n = 16[1].
+Le nombre de chromosomes est 2n = 16.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium dilatatum est endémique en Crète dans les régions de La Canée et Réthymnon. 
 L'espèce pousse sur les parois rocheuses et dans les forêts de pins rocheux à des altitudes de 0 à 900 mètres.
